--- a/회의록.xlsx
+++ b/회의록.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\Project βis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E377279-734E-47B8-8DA7-BDE3BE81D9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19887E9F-F49B-42B5-95D6-6B8E07307279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{629325BB-35DF-4551-8F54-7588F55BAB3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{629325BB-35DF-4551-8F54-7588F55BAB3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2025.06.02" sheetId="1" r:id="rId1"/>
-    <sheet name="2025.06.06" sheetId="2" r:id="rId2"/>
+    <sheet name="2025.06.09" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C4809A-563D-42EB-95EC-7C7EBB891DD1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -593,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9B79BF-ABA5-460F-96B8-1241CBB47136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA0C17D-039A-4088-B0CD-07B3D3CDF8DA}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
